--- a/ДЗ 6.xlsx
+++ b/ДЗ 6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Workbook________" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X\Desktop\Обучение\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X\Desktop\Обучение\My_-first_-Rep_2021--\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="110">
   <si>
     <t>passed</t>
   </si>
@@ -1081,6 +1081,30 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1089,30 +1113,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1691,10 +1691,10 @@
   <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,7 +1738,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="16">
         <f>COUNTIF(L$8:L$37,"failed")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="16">
@@ -1783,7 +1783,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$37,"passed")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1910,43 +1910,43 @@
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="33" t="s">
+      <c r="F6" s="31"/>
+      <c r="G6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="31"/>
+      <c r="J6" s="39"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="38" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="38" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="30"/>
+      <c r="P6" s="38"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="30"/>
+      <c r="R6" s="38"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="30"/>
+      <c r="T6" s="38"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1956,29 +1956,29 @@
     </row>
     <row r="7" spans="1:26" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="32"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="30"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="30"/>
+      <c r="N7" s="38"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="30"/>
+      <c r="P7" s="38"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="30"/>
+      <c r="R7" s="38"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="30"/>
+      <c r="T7" s="38"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -2643,7 +2643,7 @@
       <c r="B26" s="3">
         <v>19</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="30" t="s">
         <v>76</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -2660,7 +2660,9 @@
       <c r="I26" s="21"/>
       <c r="J26" s="20"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="6"/>
+      <c r="L26" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M26" s="11"/>
       <c r="N26" s="6"/>
       <c r="O26" s="11"/>
@@ -2696,7 +2698,9 @@
       <c r="I27" s="21"/>
       <c r="J27" s="20"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="6"/>
+      <c r="L27" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M27" s="11"/>
       <c r="N27" s="6"/>
       <c r="O27" s="11"/>
@@ -2732,7 +2736,9 @@
       <c r="I28" s="21"/>
       <c r="J28" s="20"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="6"/>
+      <c r="L28" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M28" s="11"/>
       <c r="N28" s="6"/>
       <c r="O28" s="11"/>
@@ -2840,7 +2846,9 @@
       <c r="I31" s="21"/>
       <c r="J31" s="20"/>
       <c r="K31" s="10"/>
-      <c r="L31" s="6"/>
+      <c r="L31" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M31" s="11"/>
       <c r="N31" s="6"/>
       <c r="O31" s="11"/>
@@ -2876,7 +2884,9 @@
       <c r="I32" s="21"/>
       <c r="J32" s="20"/>
       <c r="K32" s="10"/>
-      <c r="L32" s="6"/>
+      <c r="L32" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M32" s="11"/>
       <c r="N32" s="6"/>
       <c r="O32" s="11"/>
@@ -2984,7 +2994,9 @@
       <c r="I35" s="21"/>
       <c r="J35" s="20"/>
       <c r="K35" s="10"/>
-      <c r="L35" s="6"/>
+      <c r="L35" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M35" s="11"/>
       <c r="N35" s="6"/>
       <c r="O35" s="11"/>
@@ -3020,7 +3032,9 @@
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
       <c r="K36" s="10"/>
-      <c r="L36" s="6"/>
+      <c r="L36" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M36" s="11"/>
       <c r="N36" s="6"/>
       <c r="O36" s="11"/>
@@ -3525,12 +3539,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3538,6 +3546,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L8:L37 N8:N37 T8:T37 P8:P37 R8:R37">
